--- a/Release Aug2014/hcpcs_to_rxnorm_map.xlsx
+++ b/Release Aug2014/hcpcs_to_rxnorm_map.xlsx
@@ -2222,7 +2222,7 @@
   <dimension ref="A1:G311"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2887,7 +2887,7 @@
         <v>54</v>
       </c>
       <c r="D29">
-        <v>1310319</v>
+        <v>1310318</v>
       </c>
       <c r="E29">
         <v>8</v>
@@ -2910,7 +2910,7 @@
         <v>56</v>
       </c>
       <c r="D30">
-        <v>1310320</v>
+        <v>1310318</v>
       </c>
       <c r="E30">
         <v>8</v>
@@ -2933,7 +2933,7 @@
         <v>58</v>
       </c>
       <c r="D31">
-        <v>1310321</v>
+        <v>1310318</v>
       </c>
       <c r="E31">
         <v>8</v>
@@ -2956,7 +2956,7 @@
         <v>60</v>
       </c>
       <c r="D32">
-        <v>1310322</v>
+        <v>1310318</v>
       </c>
       <c r="E32">
         <v>8</v>
